--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>14</t>
+    <t>23</t>
   </si>
   <si>
     <t>Level</t>
@@ -126,73 +126,100 @@
     <t>1</t>
   </si>
   <si>
+    <t>00000072072</t>
+  </si>
+  <si>
+    <t>100000000012</t>
+  </si>
+  <si>
+    <t>100000072062</t>
+  </si>
+  <si>
     <t>100000072082</t>
   </si>
   <si>
+    <t>100000072084</t>
+  </si>
+  <si>
+    <t>Medicinal product subject to medical prescription</t>
+  </si>
+  <si>
+    <t>100000073543</t>
+  </si>
+  <si>
+    <t>Pre-filled pen</t>
+  </si>
+  <si>
+    <t>100000073578</t>
+  </si>
+  <si>
+    <t>Gingival use</t>
+  </si>
+  <si>
+    <t>100000073633</t>
+  </si>
+  <si>
+    <t>100000073646</t>
+  </si>
+  <si>
+    <t>Oral solution</t>
+  </si>
+  <si>
+    <t>100000073864</t>
+  </si>
+  <si>
+    <t>100000109093</t>
+  </si>
+  <si>
+    <t>100000155527</t>
+  </si>
+  <si>
+    <t>Chemical Medicinal Product</t>
+  </si>
+  <si>
+    <t>100000155538</t>
+  </si>
+  <si>
+    <t>200000002135</t>
+  </si>
+  <si>
+    <t>200000002145</t>
+  </si>
+  <si>
+    <t>Spoonful</t>
+  </si>
+  <si>
+    <t>200000003204</t>
+  </si>
+  <si>
+    <t>Glass type I</t>
+  </si>
+  <si>
+    <t>220000000001</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>220000000002</t>
+  </si>
+  <si>
+    <t>Invented name part</t>
+  </si>
+  <si>
+    <t>220000000003</t>
+  </si>
+  <si>
+    <t>220000000004</t>
+  </si>
+  <si>
+    <t>220000000005</t>
+  </si>
+  <si>
+    <t>220000000033</t>
+  </si>
+  <si>
     <t>220000000034</t>
-  </si>
-  <si>
-    <t>220000000033</t>
-  </si>
-  <si>
-    <t>100000155538</t>
-  </si>
-  <si>
-    <t>220000000002</t>
-  </si>
-  <si>
-    <t>Invented name part</t>
-  </si>
-  <si>
-    <t>220000000001</t>
-  </si>
-  <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>100000073646</t>
-  </si>
-  <si>
-    <t>Oral solution</t>
-  </si>
-  <si>
-    <t>200000002145</t>
-  </si>
-  <si>
-    <t>Spoonful</t>
-  </si>
-  <si>
-    <t>100000073578</t>
-  </si>
-  <si>
-    <t>Gingival use</t>
-  </si>
-  <si>
-    <t>100000072084</t>
-  </si>
-  <si>
-    <t>Medicinal product subject to medical prescription</t>
-  </si>
-  <si>
-    <t>00000072072</t>
-  </si>
-  <si>
-    <t>100000073543</t>
-  </si>
-  <si>
-    <t>Pre-filled pen</t>
-  </si>
-  <si>
-    <t>200000003204</t>
-  </si>
-  <si>
-    <t>Glass type I</t>
-  </si>
-  <si>
-    <t>100000155527</t>
-  </si>
-  <si>
-    <t>Chemical Medicinal Product</t>
   </si>
 </sst>
 </file>
@@ -491,7 +518,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +545,9 @@
       <c r="B2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" t="s" s="2">
+        <v>11</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
@@ -594,9 +623,7 @@
       <c r="B9" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
@@ -604,10 +631,10 @@
         <v>36</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -616,11 +643,9 @@
         <v>36</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
@@ -628,11 +653,9 @@
         <v>36</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
@@ -640,10 +663,10 @@
         <v>36</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -652,11 +675,9 @@
         <v>36</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
@@ -664,12 +685,108 @@
         <v>36</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C17" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -210,10 +210,19 @@
     <t>220000000003</t>
   </si>
   <si>
+    <t>Scientific name part</t>
+  </si>
+  <si>
     <t>220000000004</t>
   </si>
   <si>
+    <t>Strength part</t>
+  </si>
+  <si>
     <t>220000000005</t>
+  </si>
+  <si>
+    <t>Pharmaceutical dose form part</t>
   </si>
   <si>
     <t>220000000033</t>
@@ -745,7 +754,9 @@
       <c r="B20" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
@@ -753,9 +764,11 @@
         <v>36</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
@@ -763,9 +776,11 @@
         <v>36</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
@@ -773,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -783,7 +798,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>23</t>
+    <t>25</t>
   </si>
   <si>
     <t>Level</t>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>220000000034</t>
+  </si>
+  <si>
+    <t>30007000</t>
+  </si>
+  <si>
+    <t>Blister</t>
+  </si>
+  <si>
+    <t>200000003222</t>
+  </si>
+  <si>
+    <t>PolyVinyl Chloride</t>
   </si>
 </sst>
 </file>
@@ -527,7 +539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -803,6 +815,30 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>Level</t>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>PolyVinyl Chloride</t>
+  </si>
+  <si>
+    <t>200000003215</t>
+  </si>
+  <si>
+    <t>High Density PolyEthylene</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -839,6 +845,18 @@
       </c>
       <c r="D26" s="2"/>
     </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>Level</t>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>High Density PolyEthylene</t>
+  </si>
+  <si>
+    <t>100000073497</t>
+  </si>
+  <si>
+    <t>Bottle</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -857,6 +863,18 @@
       </c>
       <c r="D27" s="2"/>
     </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>27</t>
+    <t>30</t>
   </si>
   <si>
     <t>Level</t>
@@ -253,6 +253,21 @@
   </si>
   <si>
     <t>Bottle</t>
+  </si>
+  <si>
+    <t>10219000</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>15054000</t>
+  </si>
+  <si>
+    <t>20053000</t>
+  </si>
+  <si>
+    <t>Oral use</t>
   </si>
 </sst>
 </file>
@@ -551,7 +566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,6 +890,42 @@
       </c>
       <c r="D28" s="2"/>
     </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>30</t>
+    <t>32</t>
   </si>
   <si>
     <t>Level</t>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>Oral use</t>
+  </si>
+  <si>
+    <t>100000116155</t>
+  </si>
+  <si>
+    <t>Granules and solvent for oral suspension</t>
+  </si>
+  <si>
+    <t>100000073619</t>
+  </si>
+  <si>
+    <t>oral use</t>
   </si>
 </sst>
 </file>
@@ -566,7 +578,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -926,6 +938,30 @@
       </c>
       <c r="D31" s="2"/>
     </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>32</t>
+    <t>35</t>
   </si>
   <si>
     <t>Level</t>
@@ -280,6 +280,21 @@
   </si>
   <si>
     <t>oral use</t>
+  </si>
+  <si>
+    <t>100000073504</t>
+  </si>
+  <si>
+    <t>Child-resistant closure</t>
+  </si>
+  <si>
+    <t>200000003529</t>
+  </si>
+  <si>
+    <t>Cardboard</t>
+  </si>
+  <si>
+    <t>200000002152</t>
   </si>
 </sst>
 </file>
@@ -578,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -962,6 +977,40 @@
       </c>
       <c r="D33" s="2"/>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>35</t>
+    <t>42</t>
   </si>
   <si>
     <t>Level</t>
@@ -280,6 +280,27 @@
   </si>
   <si>
     <t>oral use</t>
+  </si>
+  <si>
+    <t>100000155538-0</t>
+  </si>
+  <si>
+    <t>100000155538-1</t>
+  </si>
+  <si>
+    <t>100000155538-2</t>
+  </si>
+  <si>
+    <t>100000155538-3</t>
+  </si>
+  <si>
+    <t>100000155538-4</t>
+  </si>
+  <si>
+    <t>100000155538-5</t>
+  </si>
+  <si>
+    <t>100000155538-6</t>
   </si>
   <si>
     <t>100000073504</t>
@@ -593,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -984,9 +1005,7 @@
       <c r="B34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>90</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
@@ -994,11 +1013,9 @@
         <v>36</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
@@ -1006,10 +1023,84 @@
         <v>36</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
+++ b/CodeSystem-CodeSystemUvEPIRrmswi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
